--- a/02 Excel/Tio Cash Master 0330 Stairstep.xlsx
+++ b/02 Excel/Tio Cash Master 0330 Stairstep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cash_\Desktop\Tio Cash Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB79895E-D73A-4AD0-B878-3658441139F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984A1961-2D8F-4766-A9B1-6EB516EA9EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-144" yWindow="-144" windowWidth="23328" windowHeight="13248" firstSheet="2" activeTab="3" xr2:uid="{AEEC4296-A9AA-4F68-A26B-F81A08983088}"/>
+    <workbookView xWindow="-144" yWindow="-144" windowWidth="23328" windowHeight="13248" firstSheet="9" activeTab="11" xr2:uid="{AEEC4296-A9AA-4F68-A26B-F81A08983088}"/>
   </bookViews>
   <sheets>
     <sheet name="0330 PSL 30 block data" sheetId="5" r:id="rId1"/>
@@ -4374,7 +4374,7 @@
         <c:axId val="565949504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="90"/>
+          <c:max val="87"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4429,7 +4429,7 @@
         <c:crossAx val="565949176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="30"/>
+        <c:majorUnit val="29"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:dTable>
@@ -16827,7 +16827,7 @@
         <c:axId val="565949504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="57"/>
+          <c:max val="51"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -20979,7 +20979,7 @@
         <c:axId val="565949504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="70"/>
+          <c:max val="69"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -21034,7 +21034,7 @@
         <c:crossAx val="565949176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="30"/>
+        <c:majorUnit val="23"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:dTable>
@@ -26584,7 +26584,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FFB17202-8CC0-49A2-AEDE-3C41246E073A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26595,7 +26595,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{73221B15-008E-47DD-9E8B-ADE92E975610}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27205,7 +27205,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8661400" cy="6290733"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -33141,9 +33141,9 @@
         <f t="array" aca="1" ref="A1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>0330 PSL 30 block data</v>
       </c>
-      <c r="B1" t="str" cm="1">
+      <c r="B1" t="e" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH(".",CELL("filename"))-1-SEARCH("[",CELL("filename")))</f>
-        <v>Tio Cash Master 0330 Stairstep</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="19.2" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -33901,33 +33901,33 @@
         <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename",B1),FIND("]",CELL("filename",B1))+1,255)</f>
         <v>0332 Starstep Sorted Data</v>
       </c>
-      <c r="C1" t="str" cm="1">
+      <c r="C1" t="e" cm="1">
         <f t="array" aca="1" ref="C1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH(".",CELL("filename"))-1-SEARCH("[",CELL("filename")))</f>
-        <v>Tio Cash Master 0330 Stairstep</v>
+        <v>#N/A</v>
       </c>
       <c r="N1" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="N1" ca="1">MID(CELL("filename",N1),FIND("]",CELL("filename",N1))+1,255)</f>
         <v>0332 Starstep Sorted Data</v>
       </c>
-      <c r="O1" t="str" cm="1">
+      <c r="O1" t="e" cm="1">
         <f t="array" aca="1" ref="O1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH(".",CELL("filename"))-1-SEARCH("[",CELL("filename")))</f>
-        <v>Tio Cash Master 0330 Stairstep</v>
+        <v>#N/A</v>
       </c>
       <c r="Z1" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="Z1" ca="1">MID(CELL("filename",Z1),FIND("]",CELL("filename",Z1))+1,255)</f>
         <v>0332 Starstep Sorted Data</v>
       </c>
-      <c r="AA1" t="str" cm="1">
+      <c r="AA1" t="e" cm="1">
         <f t="array" aca="1" ref="AA1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH(".",CELL("filename"))-1-SEARCH("[",CELL("filename")))</f>
-        <v>Tio Cash Master 0330 Stairstep</v>
+        <v>#N/A</v>
       </c>
       <c r="AL1" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="AL1" ca="1">MID(CELL("filename",AL1),FIND("]",CELL("filename",AL1))+1,255)</f>
         <v>0332 Starstep Sorted Data</v>
       </c>
-      <c r="AM1" t="str" cm="1">
+      <c r="AM1" t="e" cm="1">
         <f t="array" aca="1" ref="AM1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH(".",CELL("filename"))-1-SEARCH("[",CELL("filename")))</f>
-        <v>Tio Cash Master 0330 Stairstep</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="2:48" ht="16.2" x14ac:dyDescent="0.35">
@@ -37319,33 +37319,33 @@
         <f t="array" aca="1" ref="B32" ca="1">MID(CELL("filename",B32),FIND("]",CELL("filename",B32))+1,255)</f>
         <v>0332 Starstep Sorted Data</v>
       </c>
-      <c r="C32" t="str" cm="1">
+      <c r="C32" t="e" cm="1">
         <f t="array" aca="1" ref="C32" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH(".",CELL("filename"))-1-SEARCH("[",CELL("filename")))</f>
-        <v>Tio Cash Master 0330 Stairstep</v>
+        <v>#N/A</v>
       </c>
       <c r="N32" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="N32" ca="1">MID(CELL("filename",N32),FIND("]",CELL("filename",N32))+1,255)</f>
         <v>0332 Starstep Sorted Data</v>
       </c>
-      <c r="O32" t="str" cm="1">
+      <c r="O32" t="e" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH(".",CELL("filename"))-1-SEARCH("[",CELL("filename")))</f>
-        <v>Tio Cash Master 0330 Stairstep</v>
+        <v>#N/A</v>
       </c>
       <c r="Z32" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="Z32" ca="1">MID(CELL("filename",Z32),FIND("]",CELL("filename",Z32))+1,255)</f>
         <v>0332 Starstep Sorted Data</v>
       </c>
-      <c r="AA32" t="str" cm="1">
+      <c r="AA32" t="e" cm="1">
         <f t="array" aca="1" ref="AA32" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH(".",CELL("filename"))-1-SEARCH("[",CELL("filename")))</f>
-        <v>Tio Cash Master 0330 Stairstep</v>
+        <v>#N/A</v>
       </c>
       <c r="AL32" s="26" t="str" cm="1">
         <f t="array" aca="1" ref="AL32" ca="1">MID(CELL("filename",AL32),FIND("]",CELL("filename",AL32))+1,255)</f>
         <v>0332 Starstep Sorted Data</v>
       </c>
-      <c r="AM32" t="str" cm="1">
+      <c r="AM32" t="e" cm="1">
         <f t="array" aca="1" ref="AM32" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH(".",CELL("filename"))-1-SEARCH("[",CELL("filename")))</f>
-        <v>Tio Cash Master 0330 Stairstep</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="2:48" ht="16.2" x14ac:dyDescent="0.35">
